--- a/master_exchange_rates.xlsx
+++ b/master_exchange_rates.xlsx
@@ -57,6 +57,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q4-JPYtoGBP" sheetId="48" state="visible" r:id="rId48"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q4-AUDtoGBP" sheetId="49" state="visible" r:id="rId49"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q4-CADtoGBP" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q3-USDtoGBP" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q3-EURtoGBP" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q3-JPYtoGBP" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q3-AUDtoGBP" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q3-CADtoGBP" sheetId="55" state="visible" r:id="rId55"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43954,6 +43959,4761 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.793798</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.793798</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.790117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.788748</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.788254</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.789107</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.786433</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.786433</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.786433</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.784407</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.779451</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.775462</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.77073</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.763867</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.763867</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.763867</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.766324</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.766377</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.777125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.778898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.780368</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.780368</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.780368</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.781466</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.780739</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.77716</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.779735</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.783598</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.783598</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.783598</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.779651</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.784951</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.788727</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.792355</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.788177</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.788177</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.788177</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.786696</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.788485</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.786759</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.786933</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.789616</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.789616</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.789616</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7927380000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.789178</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.788306</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.787312</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.788183</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.788183</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.788183</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.786887</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.786384</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.792784</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.792107</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.797032</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.797032</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.797032</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.795909</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.796153</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.793228</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7904870000000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.794367</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.794367</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.794367</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.794892</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.798304</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.801183</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.803578</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.802358</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.802358</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.802358</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.802027</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.802733</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.804413</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.806481</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8075369999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8075369999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8075369999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.808523</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.808519</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.810872</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.817331</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.817568</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.817568</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.817568</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8201889999999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8225479999999999</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.824859</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.825859</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.82112</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.82112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EUR/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.862773</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.862773</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8607860000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.860575</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.857784</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.856577</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.855683</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.855683</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.855683</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.858576</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.856469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.856669</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.857778</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.857482</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.857482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.857482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.859985</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8609830000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.870247</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.870076</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.868175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.868175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.868175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.866278</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.864567</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.858885</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.86017</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8591760000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8591760000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8591760000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.859284</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.860771</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.863076</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.865669</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.864975</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.864975</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.864975</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.864281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8627860000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.863676</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.86628</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8671759999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8671759999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8671759999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.863483</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.861181</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.859576</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8558829999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.855981</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.855981</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.855981</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.856483</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.855379</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.856762</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8580759999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.858785</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.858785</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.858785</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.860086</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.860977</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.861185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.860077</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.857486</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.857486</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.857486</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.856389</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.857872</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.857971</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.860381</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.859188</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.859188</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.859188</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.859282</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.860183</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.863177</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.861779</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.861675</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.861675</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.861675</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.862884</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.863889</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.866175</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.869465</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.870178</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.870178</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.870178</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8704809999999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.870779</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.870475</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8669790000000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.86818</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.86818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>JPY/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0055047</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0055047</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0054879</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0054701</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0054712</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0054972</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0055343</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0055343</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0055343</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0055432</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0055613</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0056126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0055832</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0055659</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0055659</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0055659</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0055532</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0055657</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0056006</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0055997</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.005584</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.005584</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.005584</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0055527</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0055413</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.005545</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0055951</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0056615</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0056615</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0056615</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0055416</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.005526</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0055456</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0055776</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0055683</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0055683</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0055683</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0055591</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0055373</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0055024</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.005492</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0054693</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0054693</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0054693</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0054802</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0054391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0054256</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0054068</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0054318</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0054318</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0054318</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0054221</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0054053</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0054835</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0054803</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0054698</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0054698</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0054698</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.005442</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0054588</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.00545</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0054346</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0054997</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0054997</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0054997</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0054444</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0054534</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0054501</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0054652</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.005474</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.005474</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.005474</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0054972</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.005486</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0054732</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0054862</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0054918</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0054918</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0054918</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.00548</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0054818</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0054936</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0055482</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0055471</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0055471</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0055471</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0055327</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0055319</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0055414</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0055377</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0055289</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0055289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5258315</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5258315</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5269326</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5269914</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5268818</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5261188999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5217951</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5217951</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5217951</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5217924</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5200251</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5227591</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5259631</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5252476</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5252476</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5252476</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5227247</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5223662</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5261485</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.530493</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5277382</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5277382</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5277382</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5260757</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5282171</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5276162</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5259902</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5252526</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5252526</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5252526</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5242382</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5239083</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5186752</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5170452</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5173183</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5173183</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5173183</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5172856</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5145708</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5145478</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5162444</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5156276</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5156276</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5156276</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5127259</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5130846999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5089631</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5055627</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5044004</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5044004</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5044004</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5039952</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5056187</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5099642</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5100643</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.510659</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.510659</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.510659</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5111056</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5125406</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5134084</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5119629999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5132242</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5132242</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5132242</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5137825</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5118994</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5109371</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5130112</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5129389</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5129389</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5129389</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5147292</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5159799</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5149475999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5194239</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.520902</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.520902</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.520902</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5204709</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5218251</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5248567</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5247157</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5271458999999999</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5271458999999999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5271458999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5266085</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.527496</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5272993</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5260768</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.530311</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.530311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CAD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.59874</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.59874</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5961135</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5955128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.595185</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5932708</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5888744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5888744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5888744</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5898139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5866964</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5861823</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5844969</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.581914</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.581914</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.581914</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5809694</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5815411</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5900647999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5916218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5919422</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5919422</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5919422</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5931261</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5931687</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5898738</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5910176</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5918987999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5918987999999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5918987999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5913772</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5914171</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5915175</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5926418</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5902951</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5902951</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5902951</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5878061999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.585946</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.585538</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5866648</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5874916</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5874916</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5874916</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5881497999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5864177</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5838185</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5820573</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5811457</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5811457</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5811457</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5814146</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5805023</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5840828</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5842637000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.585632</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.585632</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.585632</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5855723</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5844399</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5838864</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5838898</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5851854</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5851854</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5851854</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5844054</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.584915</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5867277</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.58877</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5887011</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5887011</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5887011</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.588398</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5923209</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5926151</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5965537</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5976779</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5976779</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5976779</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5993256</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.6028207</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.6026838</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.6048289999999999</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.6076191</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.6076191</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6076191</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6084424</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.609337</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6101531</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6113729</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6084009</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6084009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/master_exchange_rates.xlsx
+++ b/master_exchange_rates.xlsx
@@ -62,6 +62,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q3-JPYtoGBP" sheetId="53" state="visible" r:id="rId53"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q3-AUDtoGBP" sheetId="54" state="visible" r:id="rId54"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC-2023Q3-CADtoGBP" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q2-USDtoGBP" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q2-EURtoGBP" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q2-JPYtoGBP" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q2-AUDtoGBP" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q2-CADtoGBP" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q2-CHFtoGBP" sheetId="61" state="visible" r:id="rId61"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -48714,6 +48720,3770 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7933351841</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7977018185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7977018185</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7962409427</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7916394871</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7954808687</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7954808687</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7954808687</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7930206185999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7908256225</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7989126786</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7994875279</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8049577399</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8049577399</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8049577399</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8049577399</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8062557448</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8056711248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8045044248</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8088643535</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8088643535</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8088643535</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8132717954000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8110949793</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8052170061</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8034701909999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8034701909999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8034701909999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8034701909999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8014739118</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8008320652000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8023742279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8019881305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7987850466999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7987850466999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7987850466999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7977654564</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8001272202</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8023098526</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8036639075999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8000632050000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8000632050000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8000632050000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.799551451</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7996153844</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7954175948</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7911384494</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7910132892</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7910132892</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7910132892</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7890160962</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.78839404</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7877109095</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7885183726</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7889538458000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7889538458000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.7889538458000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7889538458000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7842514313</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7876488655</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7887671556</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7875868313</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7875868313</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7875868313</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7878971007</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7849285714000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7841899311</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7836982759</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7867193770000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7867193770000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7867193770000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7883318877</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7872148313</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7859155928</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7852367488000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7902631581</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7902631581</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7902631581</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7901382741</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7895144479</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7883318877</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7904505573</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7923922345</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7923922345</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7923922345</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7923922345</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7894521195</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.7928948622000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7930206185999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.792580645</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.792580645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EUR/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8557721163999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8568642453999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8576068875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8582537225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8580746654</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8586637816</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8586637816</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8586637816</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8590843442</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8588869195</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8572731893</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8575107214</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8551935845999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8551935845999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8551935845999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8564244163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8549741899</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.857391973</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8576014693</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8617438513</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8617438513</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8617438513</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8644577576</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.864480638</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.860490154</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8592758592999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8583718459</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8583718459</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8583718459</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8590303218999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.855453057</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8559100004</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8564917862</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8587135402</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8587135402</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8587135402</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.859530387</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8599486063</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8617632517</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8620109177</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8620942824</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8620942824</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8620942824</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.862378233</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.861491484</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8604341662</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8593210944</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8587827212</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8587827212</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8587827212</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8577774768999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8552116467</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8546988786</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8527990955</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8532570013</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8532570013</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8532570013</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8532570013</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8518093076</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8516813082</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8517767124</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8541291511</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8541291511</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8541291511</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8536097234</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8524498611</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8526289079</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8524915705</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8520506452</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8520506452</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8520506452</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8488695396</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8467754452</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8452058872</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8457546896</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8442680115</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8442680115</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8442680115</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8462013014999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8464766256</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8464676703</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8460519301</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8465474576000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8465474576000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8465474576000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.8477748313</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8469594291</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8464222345</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.847552129</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8481668051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8481668051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>JPY/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0052419124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.005257269</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0052612509</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0052509415</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0052342738</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0052439401</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0052439401</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0052439401</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.005225809</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0052139796</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0052221664</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0052193893</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0052626807</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0052626807</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0052626807</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0052578703</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0052171381</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0052163581</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0052098484</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0052540326</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0052540326</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0052540326</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0052537441</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0052396902</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0051963888</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0051758605</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0051546558</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0051546558</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0051546558</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0051580129</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0051029916</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0052140273</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.005211588</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0052247943</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0052247943</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0052247943</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0052218311</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0051808307</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0051798204</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0051596436</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0051461404</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0051461404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0051461404</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0051353227</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0051081203</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0051055781</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.005125942</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0050834502</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0050834502</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0050834502</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0050736004</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0050429846</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0050429846</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0050240524</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0050233332</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0050233332</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0050233332</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0050233332</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0049959426</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0049982133</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0050305361</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0050188115</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0050188115</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0050188115</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0050187376</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0050700278</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0050648248</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0050291224</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0050394584</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0050394584</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0050394584</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0050258903</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0050081848</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0050020229</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0050070362</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0050262708</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0050262708</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0050262708</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0050226235</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0049988981</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0049940244</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0049821686</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0049879124</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0049879124</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0049879124</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0049705853</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0049507452</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0049422814</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0049374246</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.004935681</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.004935681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5181101401</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.517321214</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5187369839</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.519332433</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5225840398</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5221242874000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5221242874000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5221242874000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5225956203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5235195061</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5236454665</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5211392157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.521733605</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.521733605</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.521733605</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5209239574</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5190713057</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5171933459</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5181015642</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5191829639</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5191829639</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5191829639</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5229012830999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5232436389</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5237952621</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5223367684</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5238751757</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5238751757</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5238751757</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5254320079</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5235642958</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5211557106</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.524235776</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5279881955</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5279881955</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5279881955</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5286696195</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5285365679</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5280110864999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5286561205</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5293650273</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5293650273</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5293650273</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5280956046</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5277250336</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5278975645</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5287685868999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5275048487</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5275048487</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5275048487</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5288793901</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.525609813</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5253993165</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5219853341</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5208189599</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5208189599</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5208189599</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5208189599</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5220166034</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5231952111</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5217226501</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5236408773</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5236408773</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5236408773</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5236948007</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5226772665</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5218272859999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5217162273</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5220978826</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5220978826</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5220978826</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5193616701</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5197747421</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5223418875</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5216226811</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5224963495</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5224963495</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5224963495</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.522110979</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5241336778</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5249930994999999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5263074189</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5274421105</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5274421105</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5274421105</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5262751328</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5258187459</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5275726178</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5278023294999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5287077851</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5287077851</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -49648,6 +53418,1888 @@
       </c>
       <c r="B92" t="n">
         <v>0.7865345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CAD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5857949045</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5872532555</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5874029866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5869710771</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5855740651</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5847312562</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5847312562</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5847312562</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5832417584</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5827316708</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5834049039</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5839708973</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5846365754</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5846365754</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5846365754</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5838108153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5835849111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5833036605</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5841671438</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5882021283</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5882021283</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5882021283</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5920902961</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5916351041</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5886625465999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.586963802</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5866149662</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5866149662</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5866149662</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5875343909</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5836003944</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5822866382</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5845022432</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5847950558</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5847950558</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5847950558</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5835748789</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.583369265</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5834792514</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5852348748</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5854888644</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5854888644</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5854888644</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5851503157</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5842644247</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5826505066</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5805490888</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5801181302</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5801181302</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5801181302</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5794387768</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5779721715</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5773935049</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5753780524</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5750448767</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5750448767</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5750448767</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5750448767</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5749089529</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5748803404</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5746522569</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5771031945</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5771031945</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5771031945</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.576695995</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5733976401000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5729971883</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5720371528</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5729832707</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5729832707</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5729832707</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.571996578</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5722088222</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.571001145</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5707224304</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5745833594</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5745833594</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5745833594</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5747426674</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5744975361</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5743095015</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5771353861</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5789851498</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5789851498</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5789851498</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.57843255</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5787018064</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5786768286</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5786832253999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.580251914</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.580251914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CHF/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8808580336</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.882355832</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.881653705</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8765978292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8781643136</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8805058686</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8805058686</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8805058686</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8803236475</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8739562162</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.874870834</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8771174855</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.883229639</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.883229639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.883229639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8818558369</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8822770967</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.883648851</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8830444248</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.895186246</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.895186246</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.895186246</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8924828269</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8890768126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8817713311000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8781275419</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8783606788</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8783606788</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8783606788</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8770157407</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8756476167</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8725022985000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8784278671</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8815523524</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8815523524</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8815523524</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8832725132</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8802760022</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8827030143</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8833838872999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8822338271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8822338271</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8822338271</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.883196354</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8801577696</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8775056728</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8764742492000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8720269926999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8720269926999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8720269926999999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8678411942000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8653936533</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8645282596</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8617289414</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.862265846</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.862265846</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.862265846</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.862265846</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8604683415</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8623667082000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8697048206</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8714557129</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8714557129</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8714557129</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8741859861</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8800185497</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8807473414</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8792515725</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8796611764</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8796611764</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8796611764</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8790417035</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8783743302</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8762470951</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8779955102</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8868382773</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8868382773</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8868382773</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8868004235</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8913213606</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8911459247</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8912070263</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8883739544</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8883739544</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8883739544</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.8873699441</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8838746411</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8832132001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8836705175</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8810570702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8810570702</v>
       </c>
     </row>
   </sheetData>

--- a/master_exchange_rates.xlsx
+++ b/master_exchange_rates.xlsx
@@ -68,6 +68,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q2-AUDtoGBP" sheetId="59" state="visible" r:id="rId59"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q2-CADtoGBP" sheetId="60" state="visible" r:id="rId60"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q2-CHFtoGBP" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q3-USDtoGBP" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q3-EURtoGBP" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q3-JPYtoGBP" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q3-AUDtoGBP" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q3-CADtoGBP" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q3-CHFtoGBP" sheetId="67" state="visible" r:id="rId67"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55307,6 +55313,5712 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.792580645</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7917648456</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7928948622000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7897638605</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7855451689</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7842514313</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7842514313</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7842514313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7822270027</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7827780819</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7830232559</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7785728747</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7752531203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7752531203</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7752531203</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7719019681</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7730954771</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7717232596</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7729759602</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7753132267</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7753132267</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7753132267</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7755537461999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7761556972</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7767585834</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7783910639</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7791188154000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7791188154000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7791188154000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7810661566</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7802129982</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7801521297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7859155928</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7871528655</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7871528655</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7871528655</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7870289624</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7892651934</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7892029043</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7897638605</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7865337426</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7865337426</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7865337426</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7847437811</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7844359898</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7802738762</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7814934352</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7787547699</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7787547699</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7787547699</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7739331322</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7709498111999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7687569187</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7649345982</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7647006192</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7647006192</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.7647006192</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7588973208999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7588973208999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7595890615999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7609184296</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7630085455</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7630085455</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7630085455</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7627175655</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7642915013</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7635328699</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7613819098</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7629503317</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7629503317</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7629503317</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7654029848</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7665177063</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.769289176</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7675178447</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7626593961</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7626593961</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7626593961</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7627757437</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7608605343</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7602820651</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7604555133000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7538627966</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7538627966</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7538627966</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7550011322</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7502430789</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.7513705011</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7515963921</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7486703599</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7486703599</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7486703599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EUR/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8481668051</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8503160118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8498474535</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8483098408999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8474845584</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8479167344</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8479167344</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8479167344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8464879704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8459664752</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8466966339999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8433369151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8421566022</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8421566022</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8421566022</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8411900782</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8410657353</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8414611843000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8423152433</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8433211673</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8433211673</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8433211673</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8438990207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8428196909</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8418239591</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8439519</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8450266527</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8450266527</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8450266527</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8461118268</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8429774524</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8448695571</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8474221405</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8535237368</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8535237368</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8535237368</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8618921223</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8618432128</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8628622929</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8627113628</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8581582592</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8581582592</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8581582592</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8577029268</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8580768241</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8592884087</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8596219099</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8549509421</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8549509421</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8549509421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8543696568</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8543226538000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8546007587</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8534734334</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8498886192</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8498886192</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8498886192</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8500050491</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8471403714</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8445108207000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8439220811</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8429272686</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8429272686</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8429272686</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8432921203</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.843457852</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8436092754</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8437941728</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8447669822</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8447669822</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8447669822</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8456380712</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8450192524</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8464104618</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8456056813</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8452531223</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8452531223</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8452531223</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8455980897000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8454849115</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8465632091</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8440441869999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8423616972</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8423616972</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8423616972</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.8396752789</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8340096495</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8371900228</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8371610935</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8350090043</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8350090043</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8350090043</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>JPY/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.004935681</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0049247838</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0049065172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0048909771</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0048703177</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0048777209</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0048777209</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0048777209</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0048700777</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0048578842</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0048523227</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0049055229</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0049051561</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0049051561</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0049051561</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0048977262</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0048847354</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0049253526</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0049474278</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0049267838</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0049267838</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0049267838</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0049522937</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0049808421</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0050555577</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0051050616</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.005078343</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.005078343</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.005078343</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0050807517</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.005102566</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0052027796</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0052581983</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0053358704</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0053358704</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0053358704</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0055072777</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0054698761</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0054487186</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.005421113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0053615366</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0053615366</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0053615366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0053426623</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0053301328</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0053221826</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0052995965</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0052518361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0052518361</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0052518361</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.005311389</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0052838062</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0052924178</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0052775728</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0052544069</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0052544069</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0052544069</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0052759191</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0052557135</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0052521894</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0052554517</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0052488157</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0052488157</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0052488157</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0052260115</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0052530736</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0052940507</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0053163923</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0053604618</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0053604618</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0053604618</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.00536531</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.005382987</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0054419221</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0053959529</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0054232334</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0054232334</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0054232334</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0054408987</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0053957738</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0053805285</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0053350182</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0052981187</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0052981187</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0052981187</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0052588833</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0052295264</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0052137366</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0051933254</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0052524873</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0052524873</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0052524873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5287077851</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5287480757</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5270460513</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5269595416</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5277247585</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5277857143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5277857143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5277857143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5276227913</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5272709769</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5276680396</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5268553617</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5244372746</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5244372746</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5244372746</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5232402554</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5216829316</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5196320587</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5191162167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5187554167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5187554167</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5187554167</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.519232186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5140216316</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5129567256999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5106606186</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5103669854</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5103669854</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5103669854</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5108886516</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5103527195999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5103069749</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5119626877</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5126250449</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5126250449</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5126250449</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5106622494</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5149605018</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5172125875</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5172835499</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5179595377</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5179595377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5179595377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5174488978</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5165638282</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5176606262</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.516354185</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5156610512000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5156610512000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5156610512000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5183405034</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.518768366</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5181001036</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5160504126</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5148273834</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5148273834</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5148273834</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5158496723</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5144016873</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5144848061</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5178477185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5172389384</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5172389384</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5172389384</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5168553062</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5178903155</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5129099069</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5120029811</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5124496392</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5124496392</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5124496392</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5095895141</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5101452819</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5118124203</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5129895333</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5124995755</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5124995755</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5124995755</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5124591064</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5134949177</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5145836511</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5154957504</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5145981392</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5145981392</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5145981392</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5136799773</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5139549096</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5145713478</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5151563679</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5172223278</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5172223278</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5172223278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CAD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.580251914</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5794557925</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5768114575</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5770639457</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5762988805</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5759117195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5759117195</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5759117195</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5733573789999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5738403055</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.574062519</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5717723894</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5695588445999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5695588445999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5695588445999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5659365967</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5645808724</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5644026659</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5636932498</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5650125113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5650125113</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5650125113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5650682496</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5636708365</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5629464256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5629988899</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5642547462</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5642547462</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5642547462</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5640746979</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5631305966</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.564730311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5675167763</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5674086367</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5674086367</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5674086367</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5670994539000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5723398825</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5734377335</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5743101736</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5726385515</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5726385515</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5726385515</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5719636423</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5706326712000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5690427528000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5691204097</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5676435959</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5676435959</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5676435959</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5654851699</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5655463158</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5645303996</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5631884594</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5617372489</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5617372489</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5617372489</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.562667031</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5636630479</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5632569622</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5645220897</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5666120542999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5666120542999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5666120542999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5657285968</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5662137516</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5638056113</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5639049262</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5638491946999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5638491946999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5638491946999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5642753568</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5647149265</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5650492856</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5653291507</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5622313382</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5622313382</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5622313382</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5611634075</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5591765945</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5602192183</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5583358922</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5566841112000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5566841112000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5566841112000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5561850498000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5554263780000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5570781626</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5577928804</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.55502876</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.55502876</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.55502876</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CHF/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8810570702</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8818018936000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8772881058000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8733929466</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8718789406</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8719196603</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8719196603</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8719196603</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8739746415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8718739352</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.871814329</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.867338324</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8659932793</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8659932793</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8659932793</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.863311724</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8630035424</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8708194798</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8722466766</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8726490087</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8726490087</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8726490087</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8738653117</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8706858625</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8764455195</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8851147249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8839943812</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8839943812</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8839943812</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8822744105</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8829726097</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8881916619</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9003089117</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.911136034</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.911136034</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.911136034</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.929337235</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9268578145</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9270695729</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9210565199</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9096391918</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9096391918</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9096391918</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9085239584</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9062573945</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9032746911</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9021508885</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8949102566</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8949102566</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8949102566</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8971156588</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8986668494</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9004457955</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9009796888</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8990667755</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8990667755</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8990667755</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8963582618</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8971236855</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9017985492</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9013641164</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8983595871</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8983595871</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8983595871</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8994891639</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8993896409</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8999656931</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8997684489</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9045280211</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9045280211</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9045280211</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9053896777</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9053711674</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9071283315000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9006715948</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9011008466</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9011008466</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9011008466</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.901668692</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8987877537</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8992746154</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8971641061</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8906749066</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8906749066</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8906749066</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.8869687358</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8856394763</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8867621518</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8868162699</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.89066589</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.89066589</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.89066589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/master_exchange_rates.xlsx
+++ b/master_exchange_rates.xlsx
@@ -74,6 +74,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q3-AUDtoGBP" sheetId="65" state="visible" r:id="rId65"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q3-CADtoGBP" sheetId="66" state="visible" r:id="rId66"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q3-CHFtoGBP" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q4-USDtoGBP" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q4-EURtoGBP" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q4-JPYtoGBP" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q4-AUDtoGBP" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q4-CADtoGBP" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q4-CHFtoGBP" sheetId="73" state="visible" r:id="rId73"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61019,6 +61025,1908 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7493435741</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7556286839</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7551151553</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7639995415</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7653444051</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7653444051</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7653444051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7659306064</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7661653388</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7661653388</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7681073815</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7669292123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-10-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7669292123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7669292123</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7676356796</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7672822835999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7708309568</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.771544634</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7691116752</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7691116752</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7691116752</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7707715433</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7726773297</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7749527281</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7754334675</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7726176313000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7726176313000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7726176313000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.773035714</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7721403753</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.77315525</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7787547699</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7763364646000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7763364646000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7763364646000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7733346223000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7728564803</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7793009665</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7769396318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7763364646000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7763364646000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7763364646000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.778027698</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7864100344</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7884562013999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7919529578</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7940281089</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7940281089</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7940281089</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7933351841</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7930206185999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7919529578</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7953543309</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8010245116</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8010245116</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8010245116</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.7976381908</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7998072465</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7961775478000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7910132892</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7896391348</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7896391348</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7896391348</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7927691456</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.792329451</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7920156817</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7880833792</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7862863657</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7862863657</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7862863657</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7865337426</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7861009355</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7867812746</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7897014927</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7933351841</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7933351841</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7933351841</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7933351841</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7898886255999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7961775478000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8005115275</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8018595141</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8018595141</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8018595141</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.799551451</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.799551451</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7992319375</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8001272202</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7999352052000001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7999352052000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7999352052000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7998072465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EUR/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8363263767</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8346237413000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8347893004</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.843464379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8412419312</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8412419312</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8412419312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8399875616</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8405006758</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8391919678999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8386307739</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8383599985</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-10-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8383599985</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8383599985</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8391118262</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8374157788</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.838003152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8382994806</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8339822927</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8339822927</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8339822927</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8342051582</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8346806718999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8347977598</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8354883943</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8364526259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8364526259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8364526259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.834667445</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8344824839</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8376643459000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8447988863</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8444318739</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8444318739</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8444318739</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8419167212999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8411203875</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8399859687</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8353429067</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8326416554</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8326416554</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8326416554</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8323674706</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8337515709</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8346347761</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.832807514</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8360033862</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8360033862</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8360033862</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8373596296</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8376243588</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8368042355999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8343460609</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8347320752</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8347320752</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8347320752</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8362277846</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8365181119</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8355771333999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8348478194</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8335151280999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8335151280999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8335151280999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8332089598</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8313130328</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8303893019</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8301924891</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8308883537</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8308883537</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8308883537</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8302155527</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8288280052</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8253168948</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8272808908</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.832440537</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.832440537</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.832440537</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8328789363</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.829921408</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8279047146</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8292777164</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8312632695</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8312632695</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8312632695</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8317465965</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.8317465965</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8319834084</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8324934671000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8340196836</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8340196836</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8340196836</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8310646007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -61953,6 +63861,3810 @@
       </c>
       <c r="B92" t="n">
         <v>0.8580745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>JPY/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0052745008</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0052666171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0052505176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0052042974</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0052145137</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0052145137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0052145137</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0051713686</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0051832801</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0051645814</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0051649815</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.00516369</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-10-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.00516369</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.00516369</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0051440961</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0051365365</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0051618322</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0051587977</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0051337955</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0051337955</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0051337955</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0051389167</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.005124363</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0051125754</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0050899542</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0050903861</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0050903861</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0050903861</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.005058187</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0050488693</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0050444573</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.005117491</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0051069469</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0051069469</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0051069469</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0050884009</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0050802482</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0050705579</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0050440907</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0050819329</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0050819329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0050819329</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0050868275</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0050782483</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0050839319</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0050730574</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0051456727</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0051456727</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0051456727</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0051504142</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0051666881</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0051042286</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0051454144</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0051857129</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0051857129</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0051857129</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0051746261</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0052076499</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0052452451</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0052297462</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0052593256</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0052593256</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0052593256</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0053062192</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0053173424</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.005281357</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.005254248</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0052438253</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0052438253</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0052438253</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0052469267</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0051967268</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0051931522</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0051836677</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0051858072</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0051858072</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0051858072</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0051656214</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0051378796</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0051529693</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0051496937</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0051089537</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0051089537</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0051089537</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.005102409</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.005102409</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0050903997</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0050828328</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0050713626</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0050713626</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0050713626</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0050947728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5184057102</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5192651906</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5204443345</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.522783514</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5226836657</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5226836657</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5226836657</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5195569118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5179079024</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5162839493</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5164501883</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5174663187</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-10-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5174663187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5174663187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5167462895</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5157497379</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5151082714</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5160960278</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5159116795000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5159116795000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5159116795000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5150933311</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5164639682</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.515950099</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5143546942</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5131170257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5131170257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5131170257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5117199634</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5080172324</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5081541729</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5107531673</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5104828581</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5104828581</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5104828581</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5103199276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5105633902</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5111675366</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5152921517</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5146715548</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5146715548</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5146715548</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5118130886</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5131522572</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5134501079</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5115885006999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5130618651</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5130618651</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5130618651</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5136981188999999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5153112799</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5157053678</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5175505961</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5205337915</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5205337915</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5205337915</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5201333529</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5179852659</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5159024374</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5138976497</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.513589126</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.513589126</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.513589126</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5127540062</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5126661395</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5122531348</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5068525629</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5066387947</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5066387947</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5066387947</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5061153957</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5054426889</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5001638155</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5034507628</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5049066983</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5049066983</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5049066983</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5052236026</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5028221871</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.4997979876</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4997561286</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4999879193</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4999879193</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4999879193</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4991040421</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4991040421</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4993246331</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4998520015</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.498247921</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.498247921</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.498247921</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.4970504918</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CAD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.554317148</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5588964962</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5598470776</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5642196704</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5643419085</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5643419085</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5643419085</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5638895621</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5621740673</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5603363724</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5596800494</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5587110379</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-10-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5587110379</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5587110379</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5569369166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5570492234</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5602309686</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5606070158000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.557931947</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.557931947</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.557931947</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5568975108000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5587287785</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5595330246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5598126571000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5571243587</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5571243587</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5571243587</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5561438174</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5560053206</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5551907806</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5591802235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.556956903</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.556956903</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.556956903</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5560738594</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5559689656</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5594727961</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5584089491999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5581298528</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5581298528</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5581298528</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5584290541</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5632959823</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5636026175</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5648603115</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.563158637</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.563158637</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.563158637</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5638104479</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5666492948</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5672330526</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5694402644</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5719474015</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5719474015</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5719474015</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5702167594000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.56964976</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5664488248</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.565019299</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5636631171000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5636631171000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5636631171000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5629698739</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5633299595</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5622704568</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5599089935</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5597358898</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5597358898</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5597358898</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5553591968</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5552781708</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5562142559</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5558387967</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5572984785</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5572984785</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5572984785</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5579483086</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5543103547</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5513703099</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5565334689</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5564909957</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5564909957</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5564909957</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5571724681</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5571724681</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5565644357</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5569204788</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5553202893</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5553202893</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5553202893</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5557475145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CHF/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.890873278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8926840072</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8935213963</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8991793215</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.895952071</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.895952071</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.895952071</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8962830723</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8967353309</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8932726515</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8958037526</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8960444999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-10-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8960444999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8960444999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8948702972</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8891239223</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8934737881</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8920657242</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8887434352</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8887434352</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8887434352</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8900556786</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8922088379000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8936601743</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8950296658</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8917006251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8917006251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8917006251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8915219634</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8921351343</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8905835428</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9003840863</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8983414721</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8983414721</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8983414721</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8953940469</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8948332841</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8914652244</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8869724574</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8867220168</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8867220168</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8867220168</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8864787814</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8900478775</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8913092263</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8925580626</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8937554676</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8937554676</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8937554676</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.897204701</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8988644499</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8950962931000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8973409054</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9009244419</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9009244419</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9009244419</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8987754558</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9000062886</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8995694201</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8975697531</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8957706556</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8957706556</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8957706556</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8942679659</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8941146592</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8927868964</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8930840154</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8952279631</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8952279631</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8952279631</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8949531192</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8945347987</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8902085624</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8886508586</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8885903312</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8885903312</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8885903312</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8915762374</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8831712177</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8836043147</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8910938763</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8952140335</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8952140335</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8952140335</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8938910043</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.8938910043</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8890171835</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.889055899</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8893929008</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8893929008</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8893929008</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8843098816</v>
       </c>
     </row>
   </sheetData>

--- a/master_exchange_rates.xlsx
+++ b/master_exchange_rates.xlsx
@@ -80,6 +80,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q4-AUDtoGBP" sheetId="71" state="visible" r:id="rId71"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q4-CADtoGBP" sheetId="72" state="visible" r:id="rId72"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2024Q4-CHFtoGBP" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q1-USDtoGBP" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q1-EURtoGBP" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q1-JPYtoGBP" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q1-AUDtoGBP" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q1-CADtoGBP" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q1-CHFtoGBP" sheetId="79" state="visible" r:id="rId79"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -67672,6 +67678,5592 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7999992</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7999992</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8097813587</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8082759458</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8082759458</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8082759458</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8060607768</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.801730939</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.811753389</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8173265219</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8204110263</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8204110263</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8204110263</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.826650409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8239260112</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8225028786</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.821624353</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8226382031</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8226382031</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8226382031</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8231121902</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8178612904</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8127430107</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8136688365</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8107661751</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8107661751</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8107661751</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8049577399</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8057360407</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8071016949000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8061907452</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8076231628</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8076231628</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8076231628</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8165923564000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8080799997</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8025674157</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.809257101</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8082759458</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8082759458</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8082759458</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8095846828</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8110949793</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8080799997</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8045044248</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7970659969</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7970659969</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7970659969</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7952910771</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7949117647</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7961775478000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7952910771</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7923922345</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7923922345</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7923922345</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7930835117</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.7934610809</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7916394871</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7940281089</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.796431188</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.796431188</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.796431188</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7953543309</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7888916059</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.783391304</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7774228409</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.777362407</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.777362407</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.777362407</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7777251515</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7770603776</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7745325692</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7741727953999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7747125812</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7747125812</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7747125812</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7739331322</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7722596339</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7720807598</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7732150315</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7761556972</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7761556972</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7761556972</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7761556972</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7753132267</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7769396318</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7771811609</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.7740529452</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7740529452</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7740529452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EUR/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8321922356</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8321922356</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8325603961</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8312641219</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8312641219</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8312641219</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8317784089</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8315049531000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8354211244999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8410050447</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8398115688</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8398115688</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8398115688</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8424634377</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.845261421</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8462926676</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8439722698</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8454198506</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8454198506</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8454198506</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8473545829</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8475639331</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8464597916</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8471654082</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8462848921</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8462848921</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8462848921</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8424785763</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8418630296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8397077616</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8392546922</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8389667002</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8389667002</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8389667002</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8353551686</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8334580679</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8337699061</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8383918548</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8358974755</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8358974755</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8358974755</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.833869528</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8354210458</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8356561322</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8369158641</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8354639927</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8354639927</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8354639927</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8343003095</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.831770296</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8290583535</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8296890896</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.82961208</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.82961208</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.82961208</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8305564405</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8303699779</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8314299297</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8278152616</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8268278885</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8268278885</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8268278885</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8274738804</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8307085249</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8380619834</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8411899701</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8418619394</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8418619394</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8418619394</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8418016045</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8450143012</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8449658103</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8407415492</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8428625687</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8428625687</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8428625687</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8435431611999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8428793899</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8422005013</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8400574824</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8385865646</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8385865646</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8385865646</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8392364691999999</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8365011559</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.8374597278</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8352233652</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8371644719</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8371644719</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8371644719</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>JPY/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0051097216</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0051097216</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0051497742</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0051380316</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0051380316</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0051380316</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0051287724</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0050795692</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0051258169</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0051683548</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0052032189</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0052032189</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0052032189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0052617721</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0052230488</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0052342041</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0052695091</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0052824218</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0052824218</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0052824218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0052674746</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0052509403</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0052201513</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0052016394</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0052062353</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0052062353</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0052062353</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0052053204</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0051886271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0051960977</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0052244077</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0052309756</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0052309756</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0052309756</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0052633047</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0052135891</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0052562643</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.005318606</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0053476295</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0053476295</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0053476295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0053516403</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0053411822</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0052858553</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0052320662</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0052257883</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0052257883</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0052257883</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0052465035</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0052412237</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0052514102</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0053008011</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0053162347</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0053162347</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0053162347</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0053132075</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0053153352</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0053085353</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0053047393</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0053297827</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0053297827</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0053297827</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.005296662</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.00531279</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0052401354</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0052665799</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0052739069</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0052739069</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0052739069</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0052867842</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0052978727</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.005234485</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0052434512</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0052285226</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0052285226</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0052285226</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0052110603</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0051638756</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0051755752</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.005207091</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0052085255</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0052085255</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0052085255</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0051964599</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0051655439</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0051693409</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0051692428</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0051628092</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0051628092</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0051628092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4979101723</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4979101723</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5020082715</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5019915279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5019915279</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5019915279</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5026521865</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.501352181</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5033599612</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5052343894</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5052217138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5052217138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5052217138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5078357238</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5087876448</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5094543218000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.510182394</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5102484911</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5102484911</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5102484911</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5105659038</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5100760812</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5097564419</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5100929986</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5103472594</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5103472594</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5103472594</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5062048986</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5041370273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5031794456999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5017462945</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5029890999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5029890999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5029890999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5017252109</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5017364401</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5033127115</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5069591809</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5070073356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5070073356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5070073356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.508021332</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5093085864</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5081849465</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5060016339</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5053170454</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5053170454</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5053170454</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.506251013</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5052273134</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5052038441</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5065282381</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5059006845</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5059006845</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5059006845</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5045609142</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5033687788</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5015097551</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4985833481</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.495211431</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.495211431</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.495211431</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4943550188</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4906920562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4916233508</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4930789257</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4921294515</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4921294515</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4921294515</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.4905167284</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4880356471</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4879312835</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4885258648</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.4897609532</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4897609532</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4897609532</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4918999882</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4920482085</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4900127117</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.4898433401</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4870420481</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4870420481</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4870420481</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4870995481</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4882851433</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4904912007</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4892488012</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4876634293</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4876634293</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4876634293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CAD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5566234555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5566234555</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5614727119</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5618810849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5618810849</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5618810849</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5595416184000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5585254106999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.563469448</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5677381559</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5686842236</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5686842236</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5686842236</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5726698483</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5724138174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.572100647</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5709479656000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5704789906</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5704789906</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5704789906</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5690897061</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5681677413</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5666494238999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5656041163</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.563285665</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.563285665</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.563285665</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5589163934</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5609042728</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5590491296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5588434851</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5581173624</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5581173624</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5581173624</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.559905629</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5618536591</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5600478057</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.564647507</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5662219562</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5662219562</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5662219562</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.565145606</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5655888703</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5636512956</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5624574565</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5621564819</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5621564819</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5621564819</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5612311851</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5595745385999999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5596677181</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5587312128</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.558226958</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.558226958</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.558226958</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5573300387</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5557908263</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5522001153</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5509679934</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5514541831999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5514541831999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5514541831999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5506373703</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5469091361</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5435410723</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.544256596</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5437072275</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5437072275</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5437072275</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5408104181</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5383184543</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5386777471999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5390930467</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5387904467</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5387904467</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5387904467</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5395124716</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5412626122</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5390012195</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.539794972</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5405320497</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5405320497</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5405320497</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5421723812</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5422051345</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.545538269</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5444980628</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5410661362</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5410661362</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5410661362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CHF/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.883687656</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.883687656</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.888639418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8876850243</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8876850243</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8876850243</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8877557629</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8846687947</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8909189403</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8952341884</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8948398399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8948398399</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8948398399</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9015872522</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8993189618</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.901124554</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9002513651</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9020835106</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9020835106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9020835106</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9030405768999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8986462995</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8967868567</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8974072804</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.89455167</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.89455167</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.89455167</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8925145552</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8906089834000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8903929593</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8887036607</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8877247324999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8877247324999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8877247324999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8915185638999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8873593339</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.888170376</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8942543496000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8899734104</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8899734104</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8899734104</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8891842357</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8893821401999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8836744503</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.884934416</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8842856901</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8842856901</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8842856901</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8858132819</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8815706067</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8806780268</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8805433538</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8834467234</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8834467234</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8834467234</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8843115518</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8863081005</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8855890168</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.883984565</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8845224435</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8845224435</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8845224435</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8825318836</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8852580194</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8806375518</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8793662312</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8837371246</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8837371246</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8837371246</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8847113867</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8850510001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8777317945000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8773456203</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8766042296</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8766042296</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8766042296</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8764855179</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8784615588</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8800272808</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8800264289</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8785289969</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8785289969</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8785289969</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8794909145000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8782469954</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.87904711</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8798608858</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8790394558</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8790394558</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8790394558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/master_exchange_rates.xlsx
+++ b/master_exchange_rates.xlsx
@@ -86,6 +86,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q1-AUDtoGBP" sheetId="77" state="visible" r:id="rId77"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q1-CADtoGBP" sheetId="78" state="visible" r:id="rId78"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q1-CHFtoGBP" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q2-USDtoGBP" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q2-EURtoGBP" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q2-JPYtoGBP" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q2-AUDtoGBP" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q2-CADtoGBP" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q2-CHFtoGBP" sheetId="85" state="visible" r:id="rId85"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -74205,6 +74211,5652 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7762159437</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7766982521</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7753132267</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7712471076</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7782093385</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7782093385</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7782093385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7870909088</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7867812746</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7854834656</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7808222064</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7717828199</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7717828199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7717828199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7657546519</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7598199226</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7573455016</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7576323963</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7547731904</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7547731904</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7547731904</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7538059699</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7505246175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7558571428999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7555145057</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7535219652</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7535219652</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7535219652</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7531814414</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7475510202</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7515399066</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7543177188</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7541470588</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7541470588</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7541470588</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7544884565</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7543177188</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7531814414</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7556857857</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7570588235</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7570588235</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7570588235</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7612080382</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7595313684</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7547162264</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7548301629</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7548871441</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7548871441</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7548871441</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7554003625</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7500742575</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7479983542999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.746936809</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7462679104</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7462679104</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7462679104</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.7462679104</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7409046453</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7436595522</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7457670221</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7438808303</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7438808303</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7438808303</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7435489627</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7413440581</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7408497554</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7387153725</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7405205867</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7405205867</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7405205867</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7399726212</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7433278824</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7428861155000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7396989422</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7400273812</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7400273812</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7400273812</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7392614769</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7456002089</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7464350226000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7473834081</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7446563407</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7446563407</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7446563407</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7481102714</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7404657532</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7359427435</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.7330296145</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7310468601</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7310468601</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7310468601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EUR/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8379924353</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8381539891999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8388132164</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8449729194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8526016747</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8526016747</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8526016747</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8590458361</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8595688584</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.866291383</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8660670358</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8737546032</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8737546032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8737546032</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8694850217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8617828554</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8616245568000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8626495924000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8590969784</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8590969784</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8590969784</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8625966998</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8625465349</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8585195949</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8565469176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8550122228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8550122228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8550122228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8549157359</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8512610388</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8539216825</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8511845344</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.854222777</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.854222777</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.854222777</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8533498175000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8521220312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8522781876</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8522044454</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8492578957</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8492578957</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8492578957</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8462115558</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8428212832</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8436910983</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8442118971</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.843319544</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.843319544</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.843319544</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.84323822</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8429665383</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8460220948</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8452206863</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8418760793</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8418760793</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8418760793</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8418760793</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8405464892</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8402287219</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8431791254</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.843907002</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.843907002</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.843907002</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8449901482</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8453505494</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8432184295</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8447963551</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8445805605</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8445805605</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8445805605</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8440374894</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8468972847</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8488566323</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8546578258999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.853161777</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.853161777</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.853161777</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.853225797</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8556218343999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8566197256</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8560192196999999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8574460614</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8574460614</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8574460614</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8576211383</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.85697574</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8540044498</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8539747626</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8553796275</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8553796275</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8553796275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>JPY/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0051889777</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0052035547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0051826051</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0052326298</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0053338066</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0053338066</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0053338066</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0053739394</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0053622628</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0053903858</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0053669636</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005375211</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.005375211</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.005375211</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.005360889</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0053152474</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0053317333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0053402397</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0053089553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0053089553</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0053089553</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0053207992</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0053349903</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0053115669</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0052834765</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0052715538</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0052715538</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0052715538</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.005246454</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0052533596</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.005265053</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.00525499</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0052237828</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0052237828</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0052237828</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0052359842</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0052555027</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0052602578</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0052385447</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0051999902</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0051999902</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0051999902</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0051678102</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0051351814</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0051493146</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0051708203</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0051851659</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0051851659</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0051851659</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0051985817</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.005183806</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0051932039</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0052119171</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0052074266</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0052074266</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0052074266</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0052074266</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0051812246</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0051449795</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0051475963</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0051717809</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0051717809</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0051717809</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0051823347</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0051892118</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0051705598</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0051755269</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0051441573</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0051441573</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0051441573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.005116788</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0051349138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0051209052</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0051356992</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0051619134</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0051619134</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0051619134</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0051325754</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0051321806</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0051464805</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0051546457</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0051215342</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0051215342</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0051215342</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0051038056</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0050787229</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0050765866</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0050588785</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0050522527</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0050522527</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0050522527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4866700861</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4862192459</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4883819002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4851906629</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4764235241</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4764235241</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4764235241</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4731502714</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4761829353</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4757639575</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4826930412</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4828888803</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4828888803</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4828888803</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4828896558</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4828281294</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4829564286</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4821858693</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4826982786</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4826982786</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4826982786</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4808715537</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4805027194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4837221524</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4820370199</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4830749803</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4830749803</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4830749803</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4818278022</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4799876725</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4809509379</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4830357921</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4867408156</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4867408156</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4867408156</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4884551595</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4870472838</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4884824358</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4852027059</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4843923553</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4843923553</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4843923553</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4872365515</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.48768271</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.487517467</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4866197943</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4833470467</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4833470467</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4833470467</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4849611019</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4838187109</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4811643284</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4808859474</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.4810683102</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4810683102</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4810683102</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.4810683102</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4798208004</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4781012074</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4790715941</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4788292504</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4788292504</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4788292504</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4800888437</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4801769222</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4801867215</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4806113994</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.481327402</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.481327402</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.481327402</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4816077655</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.483573034</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4838951679</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.481068508</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4806612561</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4806612561</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4806612561</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4814456877</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4828553617</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.4855205048</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4865711576</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4829274769</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4829274769</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4829274769</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.480518917</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4795620573</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4783041055</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4774084747</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4784755196</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4784755196</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4784755196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CAD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5411632481999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.542089988</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5415955274000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5431787604</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5462011087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5462011087</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5462011087</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.552930782</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5534747868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5560785514</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5555180803000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.552941459</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.552941459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.552941459</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5521625276</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5474969942</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5450751121</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5459037981</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5456203763</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5456203763</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5456203763</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5449438784</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5432642063999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5453551169999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5444637637</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5431545757</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5431545757</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5431545757</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5439461694</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5398144273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5448394283</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5456577016</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5464212441</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5464212441</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5464212441</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5471786226000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5447410401</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5442129905999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.544205701</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5430777647</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5430777647</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5430777647</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5441302983</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5438119601</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5415227554000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5406040465</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5405909537</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5405909537</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5405909537</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5402818881</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5384292561</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5382424388</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5383140787</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5389235446</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5389235446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5389235446</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5389235446</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5390905103</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5388069455</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5393477417</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5424511407</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5424511407</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5424511407</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5413627605</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5395887474</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5399033393</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5400182767</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5404964769</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5404964769</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5404964769</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5406186734</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5421085179</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5429174434</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5410671101</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5451896343</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5451896343</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5451896343</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5437571436</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5461528959</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5458587843</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5454938749</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5435482686000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5435482686000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5435482686000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5433979368</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.541315161</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5366696917</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5344900111999999</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5350211094</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5350211094</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5350211094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CHF/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8809470911</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8800087676</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8775827906</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8900477991</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9076513188000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9076513188000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9076513188000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9178903483999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9255538404</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9309722474</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9374831633</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9429268759</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9429268759</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9429268759</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9371036683</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9335661537</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9298115955</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9310946603</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9241069750999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9241069750999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9241069750999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.927936071</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9274928931999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9185329571</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9118565396</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9091296979</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9091296979</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9091296979</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9103161326</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.909159986</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9136322484</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9128894901</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9162880065</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9162880065</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9162880065</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9173991312999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9168434974</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9159899839</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9157132067</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9106974017</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9106974017</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9106974017</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9072159845</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9019467557</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8997699952</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9010245606</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.902131793</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.902131793</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.902131793</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9041345373</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9021850117</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9060402081</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9057245148</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9034574592</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9034574592</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9034574592</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9034574592</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9009301529</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8994789163</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9023040434</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9047167192</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9047167192</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9047167192</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.905869483</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9057619989</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9026550377</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9038976301</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9008740676</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9008740676</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9008740676</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9014458785</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9036317343</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9025689667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.907421923</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9153458799999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9153458799999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9153458799999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9114055517</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9134728886</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9147648108</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9134416811</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9135789564</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9135789564</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9135789564</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9148124478</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9131389529</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9136466173</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9121719865</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9142520339</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9142520339</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9142520339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/master_exchange_rates.xlsx
+++ b/master_exchange_rates.xlsx
@@ -92,6 +92,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q2-AUDtoGBP" sheetId="83" state="visible" r:id="rId83"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q2-CADtoGBP" sheetId="84" state="visible" r:id="rId84"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q2-CHFtoGBP" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q3-USDtoGBP" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q3-EURtoGBP" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q3-JPYtoGBP" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q3-AUDtoGBP" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q3-CADtoGBP" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q3-CHFtoGBP" sheetId="91" state="visible" r:id="rId91"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -79857,6 +79863,3810 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7314746544</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7299795605</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7374623894</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7362136496</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7336211577</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7336211577</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7336211577</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7368103449</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7394801451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7374080083</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.739097561</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7418940574</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7418940574</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7418940574</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7451002161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7476069077</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7484462240999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7478864708</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7463236062</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7463236062</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7463236062</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7467694721</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7429965079</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7400821493</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7407948736</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7455446211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7455446211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7455446211</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7491751572000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7516528866</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.756200091</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7586094676</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7611500988</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7611500988</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7611500988</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7547162264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7543746226</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7531247175</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7499617521</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7454334697</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7454334697</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7454334697</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7464907433</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7453223521</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7413440581</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7398083893</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7396442308</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7396442308</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7396442308</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7407948736</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7421693633999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7438254986</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7461008731</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7469926046000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7469926046000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7469926046000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.7439361703</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7445454546</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7454890414999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7418390208</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7438808303</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7438808303</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7438808303</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7412891029999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7497930567</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7501867967</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7455446211</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.744878212</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.744878212</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.744878212</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7419491021</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7399726212</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7401917098</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7412341562</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7395895275</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7395895275</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7395895275</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7388245287</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7357261626</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7344293476</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.739097561</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7429413076</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7429413076</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7429413076</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7435489627</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7416189560000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7449891977999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.7506936417</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7509191258</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7509191258</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7509191258</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7475510202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EUR/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8587191823</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.859924728</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8671254024</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8656195349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8646778767</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8646778767</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8646778767</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8654625363</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8643546789</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8639617007</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8635981582</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8671417681</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8671417681</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8671417681</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8693624048</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8696496141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8698587405</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8681456894</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8674270403</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8674270403</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8674270403</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8691580663</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8694896046</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8691423584</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8709503342</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8745181592</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8745181592</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8745181592</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8767250606</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8685672606</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8660970125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8660254605</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8732413949</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8732413949</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8732413949</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8744858078</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8717436067</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8732553199</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8744238989000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8684920255</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8684920255</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8684920255</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8678564983</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8659679261</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8658915312</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.863565123</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8640995942</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8640995942</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8640995942</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8647901143</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8652699819</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8668680516</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8667893075000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8672411244</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8672411244</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8672411244</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8677540827</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8649779164</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8650727948</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8651271018</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8673724435</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8673724435</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8673724435</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8671623679</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8713142174</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8712645683</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8681429901</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8687726384</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8687726384</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8687726384</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8686465023</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8685835554</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8664825732</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8663547968</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8666034974</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8666034974</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8666034974</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8677002686</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.869973647</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8700929861</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8702050381000001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8731069895</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8731069895</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8731069895</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8737120679</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.8748140273</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8744883256</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8751717179</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8756840043</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8756840043</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8756840043</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.874991716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>JPY/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0050712204</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0050949763</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0051191771</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0051089112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.00508716</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.00508716</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.00508716</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0050828277</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.005038198</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0050335048</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.005041428</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005045673</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.005045673</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.005045673</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0050480174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0050464399</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0050529815</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.005048462</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0050275639</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0050275639</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0050275639</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.005051329</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0050651463</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0050581911</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0050482549</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.005048523</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.005048523</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.005048523</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0050456999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0050577315</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0050659248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0050779909</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0051206226</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0051206226</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0051206226</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0051287291</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0051287672</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0051026213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0050975843</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.005066996</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.005066996</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.005066996</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0050503163</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0050337931</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0050185154</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0050359803</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0050271922</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0050271922</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0050271922</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0050171388</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0050302788</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0050547632</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0050544449</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0050431299</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0050431299</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0050431299</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.005041674</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0050452716</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0050435969</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0050417762</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0050529237</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0050529237</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0050529237</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0050457569</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0050429699</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0050398395</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0050315356</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0050340154</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0050340154</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0050340154</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0050162853</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0050311389</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.00502861</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0050225759</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0050121441</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0050121441</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0050121441</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0050022554</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0050060712</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0050134095</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0050006019</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0050217049</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0050217049</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0050217049</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0050271462</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0050222218</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0050185996</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0050103383</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0050133323</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0050133323</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0050133323</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0050168234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4797632792</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4803142484</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4836427448</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4831795751</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4827462036</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4827462036</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4827462036</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4801818584</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4822448763</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4816750098</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4855650909</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4882754395</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4882754395</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4882754395</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.488027209</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4892207099</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4878516867</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4877968325</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.486586754</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.486586754</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.486586754</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4856355751</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4851870424</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4875909239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4889816559</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4902384731</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4902384731</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4902384731</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4901026176</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4891355183</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4888747262</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4880751755</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4890064362</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4890064362</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4890064362</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4887081276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4881290133</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4888138112</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4890583736</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4862670325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4862670325</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4862670325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4859532565</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4857820389</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.484449846</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4835727875</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4810594157</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4810594157</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4810594157</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4812520128</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4820005436</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4803420008</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4791093481</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.4819107043</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4819107043</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4819107043</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.4823035904</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4823118997</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4829603359</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4838407799</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4862871665</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4862871665</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4862871665</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4855948206</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4873471555</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4882118419</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.487339322</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4867774999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4867774999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.4867774999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4874983257</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4877372483</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4895633269</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.4912432423</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4917850926</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4917850926</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4917850926</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4922860813</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.490878579</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.4902199954</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4891385366</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4903454277</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4903454277</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4903454277</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4901727085</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4896511373</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4912896874</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4908796664</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4914010376</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4914010376</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4914010376</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.4903168173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -80796,4 +84606,1906 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CAD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5354944129</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5365562332</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5413500251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5406029385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5407278089999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5407278089999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5407278089999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.539876435</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5401625656</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5394824827</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5396045972</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5423865037</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5423865037</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5423865037</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5438138876</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5447101953</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5452118558</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5462126794</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5441524502</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5441524502</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5441524502</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5453988249</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.543467721</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5439729134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5449915996</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.544303781</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.544303781</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.544303781</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5470330032</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5458650851</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5482646028</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5477726793</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5493349805</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5493349805</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5493349805</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5476439965</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5468454902</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5466683154999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5460839881</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5430675865</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5430675865</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5430675865</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5430280219</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5408233062</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5383055542</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5382107507</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5353835528999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5353835528999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5353835528999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5374284394</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5373094313</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5368766977</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5364500611</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5365856039</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5365856039</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5365856039</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5363814049</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5372078007</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.537853699</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5386429119</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5418750746</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5418750746</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5418750746</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5397822896</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5430522372</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5445229891</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.539709047</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5393653574</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5393653574</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5393653574</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5361761402</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5352641064</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5348494387</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.533869285</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5347477961</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5347477961</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5347477961</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5340446988000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5350676455</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5336643286</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5353282438</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5394490142</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5394490142</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5394490142</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.539818067</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5363493676</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5365914955</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5382613329</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.539332559</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.539332559</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.539332559</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5367781219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CHF/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9193778851</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9232420634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9299525224</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9281298306</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9251489881</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9251489881</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9251489881</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9254102149</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9258218484</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9279315675000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9294549942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9323389284</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9323389284</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9323389284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9341621224</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9355527405</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9343842576</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9328131385</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9314314259000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9314314259000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9314314259000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9349655084</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9345206017</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9344795017999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9321234546</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9374289918000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9374289918000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9374289918000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9378604926</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9341109879</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9318128345</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9336776948</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9380986967</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9380986967</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9380986967</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9404273356</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9341707937</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.933867296</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9312522076999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9247917879000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9247917879000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9247917879000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9233333272000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.919833883</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9202831843</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.917768853</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9184308246</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9184308246</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9184308246</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9189836521</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9196097212</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9253258562</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9263429678</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-08-23</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.924681062</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.924681062</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.924681062</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9261059855</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9257895009</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9252609165</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9258170613</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9276631795</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9276631795</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9276631795</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9286915341999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9311542904</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9305024953</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9278959798</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9294058896</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9294058896</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9294058896</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9330461213</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9322722695</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.929336572</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9276460992</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9280865515</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9280865515</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9280865515</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9301122277</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9334815723</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9336604473</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9325243308</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9349166172</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9349166172</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9349166172</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9385475889</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9357868047</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9373524035</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9384954751</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9393178934999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9393178934999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9393178934999999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9379885129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/master_exchange_rates.xlsx
+++ b/master_exchange_rates.xlsx
@@ -98,6 +98,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q3-AUDtoGBP" sheetId="89" state="visible" r:id="rId89"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q3-CADtoGBP" sheetId="90" state="visible" r:id="rId90"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q3-CHFtoGBP" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q4-USDtoGBP" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q4-EURtoGBP" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q4-JPYtoGBP" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q4-AUDtoGBP" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q4-CADtoGBP" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visa-2025Q4-CHFtoGBP" sheetId="97" state="visible" r:id="rId97"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -106,7 +112,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -145,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -86508,4 +86518,4622 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7457114094</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7444900239</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7464350226000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.744878212</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.744878212</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.744878212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7455446211</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7468810217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7480543087</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7531814414</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7542608235</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7542608235</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7542608235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7513140496</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7550011322</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7511447459</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7469926046000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.746936809</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.746936809</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.746936809</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7464350226000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7486143134</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7517659</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7515963921</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7527845531</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7527845531</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7527845531</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7513140496</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7550581398</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7550581398</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7612080382</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7612080382</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.762543084</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.762543084</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7637078053</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7637078053</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7637078053</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7630085455</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.768816022</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.768816022</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7667527988</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7638244731</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7638244731</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7638244731</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7619039997</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7626012356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7644667839</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7635328699</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7630667681</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7630667681</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7630667681</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7614978679</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7615558602</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7668703988</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7672234159</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.767105707</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.767105707</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.767105707</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7647006192</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7638244731</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7621362702</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7571734684</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7577472151</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7577472151</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7577472151</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7574602334</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7589549178</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7578620686999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7508063668</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7511447459</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7511447459</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7511447459</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7517659</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7527845531</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7525579469</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.749006816</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46004</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.7496806357</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7496806357</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7496806357</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7488946306000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7489507191</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7514269611</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.749736842</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7488385505</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46012</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7488385505</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7488385505</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7488385505</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.7438254986</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7417289721</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7417289721</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46018</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7422244491</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46019</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7422244491</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.7422244491</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7426102775</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7436595522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EUR/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8745712044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8741877850999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8729425269</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8732175276</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8732175276</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8732175276</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8735291123</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8705096616</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8689136837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8698434254</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8725727857</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8725727857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8725727857</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8725781612</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8726951885999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8725560121</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8707669635</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8728643185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8728643185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8728643185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8695477794000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8697857383000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8714689450999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8723746239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8747870948000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8747870948000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8747870948000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8743603617</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8789438212</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8818975903</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8816367979</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8819464442</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8819464442</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8819464442</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8788773058</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8823453173</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8833218041999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8819196227</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8819743959</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8819743959</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8819743959</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8808293404999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8817622012</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8842656399</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8847971482</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8869055407999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8869055407999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8869055407999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8849493828</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8824910598</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8838821836</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.884045051</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8829477833</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8829477833</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8829477833</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8820009624</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8801076783</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8820981321</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8776201383</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8775574222</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8775574222</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8775574222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8794110166</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8807131983000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8809730351</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8758386307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8747066157</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8747066157</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8747066157</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8752815627</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8748150864999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8756662039999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8771054442</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46004</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.879264974</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.879264974</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.879264974</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8788758683</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8800072745999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8803791412</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8789338689</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8774167745</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46012</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.8774167745</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8774167745</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8776577039</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8747150706</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.873608563</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.873608563</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46018</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8736589577</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46019</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8736589577</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8736589577</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8748703418</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8740706528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>JPY/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0050372257</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0050536577</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0050649086</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0050599377</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0050599377</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0050599377</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0049952</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0049091509</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0049200412</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0049571389</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0049571389</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0049571389</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0049434973</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0049681711</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0049618283</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0049589034</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0049844404</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0049844404</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0049844404</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0049617764</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0049564186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0049532378</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0049340693</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0049276176</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0049276176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0049276176</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0049276176</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0049157222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0049591735</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0049865063</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0049763144</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0049548166</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0049548166</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0049548166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0049534881</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.005003231</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0050246437</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0049935854</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0049840617</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0049840617</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0049840617</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0049596383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0049430085</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0049366371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0049281557</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0049426077</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0049426077</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0049426077</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0049282236</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0049101067</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0049030816</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0048835026</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.004895687</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.004895687</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.004895687</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0048880586</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0048783598</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0048740733</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0048452655</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0048523874</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0048523874</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0048523874</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0048736679</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.004870948</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.004864312</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0048462206</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0048500535</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0048500535</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0048500535</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0048436119</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0048207142</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0048027779</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0048100498</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46004</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0048108311</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0048108311</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0048108311</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0048291405</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0048367316</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.004829792</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.004811954</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0048111627</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46012</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0048111627</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0048111627</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0047590004</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0047562975</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0047600968</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0047600968</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46018</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0047557379</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46019</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0047557379</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0047557379</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0047529207</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0047530584</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AUD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4929233167</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4931763742</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4916012379</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4921621657</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4921621657</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4921621657</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.492088133</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4918553393</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4920726155</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4939458835</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4940491416</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4940491416</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4940491416</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4896970216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4899927175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4888911024</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4868376045</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4857616102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4857616102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4857616102</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4862470564</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4865253678</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4885672097</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4894801796</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4900087764</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4900087764</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4900087764</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4921151741</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4966713718</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5006586503</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4995730487</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4995206811</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4995206811</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4995206811</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4995705152</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4989370254</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4993607077</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4991662552</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4951376154</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4951376154</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4951376154</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4967542128</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4972656935</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4995603045</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5011500345</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4984789206</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4984789206</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4984789206</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.49768082</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4957328626</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4968990874</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4973637246</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.493757669</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.493757669</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.493757669</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4939398113</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.4938410648</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4945774068</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4941631354</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4959117843</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4959117843</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4959117843</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4958956214</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4977835088</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4976471925</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.496554741</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.499004646</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.499004646</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.499004646</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.4988027062</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5001677096</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.499943158</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4994682337</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46004</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.4990094795</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4990094795</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4990094795</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4984235121</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.497312172</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.497068053</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.4954548022</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.495663703</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46012</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.495663703</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.495663703</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.495977569</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4967106447</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4978208053</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4978208053</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46018</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4991373605</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46019</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4991373605</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4991373605</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4985836428</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.4978887527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CAD/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5360627565</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5351046833999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5339450777</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5333530836</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5333530836</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5333530836</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5342053887</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5350189319999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5357373075</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5369496574</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5388177008</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5388177008</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5388177008</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5364249654</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5366351139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5353225259</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5322258546999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5327258544</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5327258544</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5327258544</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5320012831000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5339280385</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5362383903</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5369416624</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.537694351</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.537694351</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.537694351</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5375679662</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5409464184</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5457726706</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5447217782</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5454932656</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5454932656</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5454932656</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5442397747</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5450741299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.545282854</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5439010161</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5420590824</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5420590824</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5420590824</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5427089935</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5433615776</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.545200165</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5448956681</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5433039145</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5433039145</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5433039145</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5431832689</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.544603664</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5456931806999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5458244898</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5437632014</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5437632014</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5437632014</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5421997287</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5416533836</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5408035396</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5392173092</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5424359495</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5424359495</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5424359495</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5420278851</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5424674737</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5425663397</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5381094231</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5437898152</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5437898152</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5437898152</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5447524580999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5439087062</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5438159432</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.542986583</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46004</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5444573307</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5444573307</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5444573307</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5442314785</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.544091233</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5450510732</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5442743654</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5441517969</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46012</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5441517969</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5441517969</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5437522631</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5416553431</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5423415442</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5423415442</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46018</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5432480244</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46019</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5432480244</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5432480244</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5431198171</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.542906329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CHF/GBP Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9360725808</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9369530761</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9339641017</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9346799166</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9346799166</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9346799166</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.936853787</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9350721717</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.93525381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9349186164</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9387164882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9387164882</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9387164882</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9384350178</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9389778649</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9416941105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9400759853</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9453996036</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9453996036</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9453996036</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9431313911</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9437899818</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9436524801</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9447839340999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9459240469</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9459240469</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9459240469</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9448789359999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9507545075</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.952742232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9501276582</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.95041504</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.95041504</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.95041504</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9475084070999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9489230172000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9513782643000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9476925059</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9469987931</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9469987931</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9469987931</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9471370484</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9509942887</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9574909834000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9651987887</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9651987887</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9651987887</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.96059885</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9580535274</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9537325159</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9528532437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9524211598</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9524211598</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9524211598</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9477422629</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9456822669</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9444726746</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9408348129</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9424840892</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9424840892</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9424840892</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9433210304</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9435539023</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9450727675</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9381853825000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9362748751</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45998</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9362748751</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9362748751</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9359619638</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9338541457</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9358918146</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9404175094</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46004</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9417285432</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9417285432</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9417285432</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9425985472</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9416815582</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9422857318</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9430791512</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9428609956</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46012</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9428609956</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9428609956</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9440578339</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9411711089</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9419511525000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9419511525000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46018</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9416849229000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46019</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9416849229000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9416849229000001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9422242973</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9407408915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/master_exchange_rates.xlsx
+++ b/master_exchange_rates.xlsx
@@ -86526,7 +86526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86780,439 +86780,439 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7550581398</v>
+        <v>0.7612080382</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7612080382</v>
+        <v>0.762543084</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45960</v>
+        <v>45962</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7612080382</v>
+        <v>0.7637078053</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45961</v>
+        <v>45963</v>
       </c>
       <c r="B34" t="n">
-        <v>0.762543084</v>
+        <v>0.7637078053</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B35" t="n">
-        <v>0.762543084</v>
+        <v>0.7637078053</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45962</v>
+        <v>45965</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7637078053</v>
+        <v>0.7630085455</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45963</v>
+        <v>45966</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7637078053</v>
+        <v>0.768816022</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45964</v>
+        <v>45967</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7637078053</v>
+        <v>0.768816022</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45965</v>
+        <v>45968</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7630085455</v>
+        <v>0.7667527988</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45966</v>
+        <v>45969</v>
       </c>
       <c r="B40" t="n">
-        <v>0.768816022</v>
+        <v>0.7638244731</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45967</v>
+        <v>45970</v>
       </c>
       <c r="B41" t="n">
-        <v>0.768816022</v>
+        <v>0.7638244731</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7667527988</v>
+        <v>0.7638244731</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7638244731</v>
+        <v>0.7619039997</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7638244731</v>
+        <v>0.7626012356</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7638244731</v>
+        <v>0.7644667839</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45972</v>
+        <v>45975</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7619039997</v>
+        <v>0.7635328699</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45973</v>
+        <v>45976</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7626012356</v>
+        <v>0.7630667681</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45974</v>
+        <v>45977</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7644667839</v>
+        <v>0.7630667681</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7635328699</v>
+        <v>0.7630667681</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45976</v>
+        <v>45979</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7630667681</v>
+        <v>0.7614978679</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7630667681</v>
+        <v>0.7615558602</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7630667681</v>
+        <v>0.7668703988</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7614978679</v>
+        <v>0.7672234159</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45980</v>
+        <v>45983</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7615558602</v>
+        <v>0.767105707</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45981</v>
+        <v>45984</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7668703988</v>
+        <v>0.767105707</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7672234159</v>
+        <v>0.767105707</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45983</v>
+        <v>45986</v>
       </c>
       <c r="B57" t="n">
-        <v>0.767105707</v>
+        <v>0.7647006192</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45984</v>
+        <v>45987</v>
       </c>
       <c r="B58" t="n">
-        <v>0.767105707</v>
+        <v>0.7638244731</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B59" t="n">
-        <v>0.767105707</v>
+        <v>0.7621362702</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7647006192</v>
+        <v>0.7571734684</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45987</v>
+        <v>45990</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7638244731</v>
+        <v>0.7577472151</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7621362702</v>
+        <v>0.7577472151</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45989</v>
+        <v>45992</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7571734684</v>
+        <v>0.7577472151</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45990</v>
+        <v>45993</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7577472151</v>
+        <v>0.7574602334</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45991</v>
+        <v>45994</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7577472151</v>
+        <v>0.7589549178</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7577472151</v>
+        <v>0.7578620686999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7574602334</v>
+        <v>0.7508063668</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7589549178</v>
+        <v>0.7511447459</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7578620686999999</v>
+        <v>0.7511447459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7508063668</v>
+        <v>0.7511447459</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7511447459</v>
+        <v>0.7517659</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7511447459</v>
+        <v>0.7527845531</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7511447459</v>
+        <v>0.7525579469</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46000</v>
+        <v>46003</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7517659</v>
+        <v>0.749006816</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7527845531</v>
+        <v>0.7496806357</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7525579469</v>
+        <v>0.7496806357</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="B77" t="n">
-        <v>0.749006816</v>
+        <v>0.7496806357</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46004</v>
+        <v>46007</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7496806357</v>
+        <v>0.7488946306000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46005</v>
+        <v>46008</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7496806357</v>
+        <v>0.7489507191</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46006</v>
+        <v>46009</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7496806357</v>
+        <v>0.7514269611</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46007</v>
+        <v>46010</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7488946306000001</v>
+        <v>0.749736842</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46008</v>
+        <v>46011</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7489507191</v>
+        <v>0.7488385505</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46009</v>
+        <v>46012</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7514269611</v>
+        <v>0.7488385505</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="B84" t="n">
-        <v>0.749736842</v>
+        <v>0.7488385505</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46011</v>
+        <v>46014</v>
       </c>
       <c r="B85" t="n">
         <v>0.7488385505</v>
@@ -87220,89 +87220,65 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46012</v>
+        <v>46015</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7488385505</v>
+        <v>0.7438254986</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46013</v>
+        <v>46016</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7488385505</v>
+        <v>0.7417289721</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7488385505</v>
+        <v>0.7417289721</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46015</v>
+        <v>46018</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7438254986</v>
+        <v>0.7422244491</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46016</v>
+        <v>46019</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7417289721</v>
+        <v>0.7422244491</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7417289721</v>
+        <v>0.7422244491</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46018</v>
+        <v>46021</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7422244491</v>
+        <v>0.7426102775</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46019</v>
+        <v>46022</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7422244491</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.7422244491</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>46021</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.7426102775</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B96" t="n">
         <v>0.7436595522</v>
       </c>
     </row>
@@ -88162,31 +88138,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0049091509</v>
+        <v>0.0049484527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0049200412</v>
+        <v>0.0049091509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45941</v>
+        <v>45940</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0049571389</v>
+        <v>0.0049200412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45942</v>
+        <v>45941</v>
       </c>
       <c r="B12" t="n">
         <v>0.0049571389</v>
@@ -88194,7 +88170,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45943</v>
+        <v>45942</v>
       </c>
       <c r="B13" t="n">
         <v>0.0049571389</v>
@@ -88202,47 +88178,47 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45944</v>
+        <v>45943</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0049434973</v>
+        <v>0.0049571389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0049681711</v>
+        <v>0.0049434973</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45946</v>
+        <v>45945</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0049618283</v>
+        <v>0.0049681711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45947</v>
+        <v>45946</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0049589034</v>
+        <v>0.0049618283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45948</v>
+        <v>45947</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0049844404</v>
+        <v>0.0049589034</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45949</v>
+        <v>45948</v>
       </c>
       <c r="B19" t="n">
         <v>0.0049844404</v>
@@ -88250,7 +88226,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45950</v>
+        <v>45949</v>
       </c>
       <c r="B20" t="n">
         <v>0.0049844404</v>
@@ -88258,47 +88234,47 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45951</v>
+        <v>45950</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0049617764</v>
+        <v>0.0049844404</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45952</v>
+        <v>45951</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0049564186</v>
+        <v>0.0049617764</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45953</v>
+        <v>45952</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0049532378</v>
+        <v>0.0049564186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45954</v>
+        <v>45953</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0049340693</v>
+        <v>0.0049532378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45955</v>
+        <v>45954</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0049276176</v>
+        <v>0.0049340693</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45956</v>
+        <v>45955</v>
       </c>
       <c r="B26" t="n">
         <v>0.0049276176</v>
@@ -90385,7 +90361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90751,23 +90727,23 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45975</v>
+        <v>45974</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9574909834000001</v>
+        <v>0.9568589148</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45976</v>
+        <v>45975</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9651987887</v>
+        <v>0.9574909834000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45977</v>
+        <v>45976</v>
       </c>
       <c r="B47" t="n">
         <v>0.9651987887</v>
@@ -90775,7 +90751,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45978</v>
+        <v>45977</v>
       </c>
       <c r="B48" t="n">
         <v>0.9651987887</v>
@@ -90783,47 +90759,47 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45979</v>
+        <v>45978</v>
       </c>
       <c r="B49" t="n">
-        <v>0.96059885</v>
+        <v>0.9651987887</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45980</v>
+        <v>45979</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9580535274</v>
+        <v>0.96059885</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45981</v>
+        <v>45980</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9537325159</v>
+        <v>0.9580535274</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9528532437</v>
+        <v>0.9537325159</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45983</v>
+        <v>45982</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9524211598</v>
+        <v>0.9528532437</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45984</v>
+        <v>45983</v>
       </c>
       <c r="B54" t="n">
         <v>0.9524211598</v>
@@ -90831,7 +90807,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45985</v>
+        <v>45984</v>
       </c>
       <c r="B55" t="n">
         <v>0.9524211598</v>
@@ -90839,47 +90815,47 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45986</v>
+        <v>45985</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9477422629</v>
+        <v>0.9524211598</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9456822669</v>
+        <v>0.9477422629</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9444726746</v>
+        <v>0.9456822669</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9408348129</v>
+        <v>0.9444726746</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9424840892</v>
+        <v>0.9408348129</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="B61" t="n">
         <v>0.9424840892</v>
@@ -90887,7 +90863,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="B62" t="n">
         <v>0.9424840892</v>
@@ -90895,47 +90871,47 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9433210304</v>
+        <v>0.9424840892</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9435539023</v>
+        <v>0.9433210304</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9450727675</v>
+        <v>0.9435539023</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9381853825000001</v>
+        <v>0.9450727675</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9362748751</v>
+        <v>0.9381853825000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="B68" t="n">
         <v>0.9362748751</v>
@@ -90943,7 +90919,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="B69" t="n">
         <v>0.9362748751</v>
@@ -90951,47 +90927,47 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9359619638</v>
+        <v>0.9362748751</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9338541457</v>
+        <v>0.9359619638</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9358918146</v>
+        <v>0.9338541457</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9404175094</v>
+        <v>0.9358918146</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46004</v>
+        <v>46003</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9417285432</v>
+        <v>0.9404175094</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="B75" t="n">
         <v>0.9417285432</v>
@@ -90999,7 +90975,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46006</v>
+        <v>46005</v>
       </c>
       <c r="B76" t="n">
         <v>0.9417285432</v>
@@ -91007,47 +90983,47 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9425985472</v>
+        <v>0.9417285432</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9416815582</v>
+        <v>0.9425985472</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46009</v>
+        <v>46008</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9422857318</v>
+        <v>0.9416815582</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46010</v>
+        <v>46009</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9430791512</v>
+        <v>0.9422857318</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46011</v>
+        <v>46010</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9428609956</v>
+        <v>0.9430791512</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46012</v>
+        <v>46011</v>
       </c>
       <c r="B82" t="n">
         <v>0.9428609956</v>
@@ -91055,7 +91031,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46013</v>
+        <v>46012</v>
       </c>
       <c r="B83" t="n">
         <v>0.9428609956</v>
@@ -91063,31 +91039,31 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46014</v>
+        <v>46013</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9440578339</v>
+        <v>0.9428609956</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46015</v>
+        <v>46014</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9411711089</v>
+        <v>0.9440578339</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46016</v>
+        <v>46015</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9419511525000001</v>
+        <v>0.9411711089</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46017</v>
+        <v>46016</v>
       </c>
       <c r="B87" t="n">
         <v>0.9419511525000001</v>
@@ -91095,15 +91071,15 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46018</v>
+        <v>46017</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9416849229000001</v>
+        <v>0.9419511525000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46019</v>
+        <v>46018</v>
       </c>
       <c r="B89" t="n">
         <v>0.9416849229000001</v>
@@ -91111,7 +91087,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46020</v>
+        <v>46019</v>
       </c>
       <c r="B90" t="n">
         <v>0.9416849229000001</v>
@@ -91119,17 +91095,25 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46021</v>
+        <v>46020</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9422242973</v>
+        <v>0.9416849229000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9422242973</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>46022</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B93" t="n">
         <v>0.9407408915</v>
       </c>
     </row>
